--- a/results/mp/tinybert/toy-spam/confidence/210/stop-words-topk-masking-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/210/stop-words-topk-masking-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="85">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,73 +46,76 @@
     <t>disappointing</t>
   </si>
   <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>returned</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
     <t>however</t>
   </si>
   <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>thin</t>
-  </si>
-  <si>
-    <t>disappointed</t>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>tiny</t>
   </si>
   <si>
     <t>instead</t>
   </si>
   <si>
-    <t>waste</t>
+    <t>water</t>
+  </si>
+  <si>
+    <t>smaller</t>
   </si>
   <si>
     <t>junk</t>
   </si>
   <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>smaller</t>
-  </si>
-  <si>
-    <t>broke</t>
+    <t>guess</t>
   </si>
   <si>
     <t>small</t>
   </si>
   <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
     <t>broken</t>
   </si>
   <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>pay</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>paint</t>
+    <t>less</t>
+  </si>
+  <si>
+    <t>difficult</t>
   </si>
   <si>
     <t>thought</t>
   </si>
   <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>difficult</t>
+    <t>bit</t>
   </si>
   <si>
     <t>size</t>
@@ -121,69 +124,63 @@
     <t>though</t>
   </si>
   <si>
+    <t>money</t>
+  </si>
+  <si>
     <t>hard</t>
   </si>
   <si>
+    <t>item</t>
+  </si>
+  <si>
     <t>would</t>
   </si>
   <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>could</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>work</t>
   </si>
   <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>could</t>
+    <t>used</t>
   </si>
   <si>
     <t>product</t>
   </si>
   <si>
-    <t>pieces</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
     <t>box</t>
   </si>
   <si>
-    <t>better</t>
+    <t>2</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>little</t>
   </si>
   <si>
+    <t>buy</t>
+  </si>
+  <si>
     <t>use</t>
   </si>
   <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>even</t>
+    <t>like</t>
   </si>
   <si>
     <t>much</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>one</t>
   </si>
   <si>
@@ -193,30 +190,30 @@
     <t>negative</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>amazing</t>
   </si>
   <si>
-    <t>wonderful</t>
-  </si>
-  <si>
     <t>favorite</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
     <t>excellent</t>
   </si>
   <si>
     <t>classic</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>loves</t>
   </si>
   <si>
@@ -229,40 +226,40 @@
     <t>loved</t>
   </si>
   <si>
+    <t>friends</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
     <t>learn</t>
   </si>
   <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>enjoyed</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
     <t>christmas</t>
   </si>
   <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>enjoyed</t>
-  </si>
-  <si>
     <t>fun</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>easy</t>
   </si>
   <si>
+    <t>game</t>
+  </si>
+  <si>
     <t>family</t>
-  </si>
-  <si>
-    <t>game</t>
   </si>
   <si>
     <t>playing</t>
@@ -629,7 +626,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q52"/>
+  <dimension ref="A1:Q51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -637,10 +634,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -698,13 +695,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9347826086956522</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="C3">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D3">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -716,19 +713,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K3">
-        <v>0.9259259259259259</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L3">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="M3">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -740,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -769,16 +766,16 @@
         <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K4">
-        <v>0.8928571428571429</v>
+        <v>0.8769230769230769</v>
       </c>
       <c r="L4">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="M4">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -790,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -798,13 +795,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.765625</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="C5">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D5">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -819,16 +816,16 @@
         <v>15</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K5">
-        <v>0.8387096774193549</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L5">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="M5">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -840,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -848,13 +845,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7605633802816901</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C6">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -866,19 +863,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K6">
-        <v>0.8307692307692308</v>
+        <v>0.7956989247311828</v>
       </c>
       <c r="L6">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="M6">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -890,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -898,13 +895,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7586206896551724</v>
+        <v>0.7150537634408602</v>
       </c>
       <c r="C7">
-        <v>22</v>
+        <v>133</v>
       </c>
       <c r="D7">
-        <v>22</v>
+        <v>133</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -916,19 +913,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K7">
-        <v>0.796875</v>
+        <v>0.703125</v>
       </c>
       <c r="L7">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="M7">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -940,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -948,13 +945,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7204301075268817</v>
+        <v>0.671875</v>
       </c>
       <c r="C8">
-        <v>134</v>
+        <v>43</v>
       </c>
       <c r="D8">
-        <v>134</v>
+        <v>43</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -966,19 +963,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K8">
-        <v>0.660377358490566</v>
+        <v>0.6792452830188679</v>
       </c>
       <c r="L8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -990,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -998,13 +995,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7083333333333334</v>
+        <v>0.6699029126213593</v>
       </c>
       <c r="C9">
-        <v>34</v>
+        <v>138</v>
       </c>
       <c r="D9">
-        <v>34</v>
+        <v>138</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1016,19 +1013,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K9">
-        <v>0.6086956521739131</v>
+        <v>0.5781922525107605</v>
       </c>
       <c r="L9">
-        <v>42</v>
+        <v>403</v>
       </c>
       <c r="M9">
-        <v>42</v>
+        <v>403</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1040,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>27</v>
+        <v>294</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1048,13 +1045,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6959459459459459</v>
+        <v>0.6554054054054054</v>
       </c>
       <c r="C10">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D10">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1066,19 +1063,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K10">
-        <v>0.5689655172413793</v>
+        <v>0.5362318840579711</v>
       </c>
       <c r="L10">
-        <v>396</v>
+        <v>37</v>
       </c>
       <c r="M10">
-        <v>397</v>
+        <v>37</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1087,10 +1084,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>300</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1098,13 +1095,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6545454545454545</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="C11">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D11">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1116,19 +1113,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K11">
-        <v>0.5</v>
+        <v>0.533195020746888</v>
       </c>
       <c r="L11">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="M11">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1140,7 +1137,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>241</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1148,13 +1145,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6428571428571429</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="C12">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D12">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1166,19 +1163,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K12">
-        <v>0.4688524590163934</v>
+        <v>0.4745901639344262</v>
       </c>
       <c r="L12">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="M12">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1190,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>648</v>
+        <v>641</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1198,13 +1195,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6218487394957983</v>
+        <v>0.5952380952380952</v>
       </c>
       <c r="C13">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="D13">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1216,10 +1213,10 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K13">
         <v>0.3795180722891566</v>
@@ -1248,13 +1245,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6213592233009708</v>
+        <v>0.5630252100840336</v>
       </c>
       <c r="C14">
-        <v>128</v>
+        <v>67</v>
       </c>
       <c r="D14">
-        <v>128</v>
+        <v>67</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1266,10 +1263,10 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K14">
         <v>0.3792048929663608</v>
@@ -1298,13 +1295,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5101449275362319</v>
+        <v>0.5272727272727272</v>
       </c>
       <c r="C15">
-        <v>176</v>
+        <v>29</v>
       </c>
       <c r="D15">
-        <v>176</v>
+        <v>29</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1316,19 +1313,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>169</v>
+        <v>26</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K15">
-        <v>0.3666666666666666</v>
+        <v>0.3492063492063492</v>
       </c>
       <c r="L15">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="M15">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1340,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>76</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1348,13 +1345,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4698795180722892</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="C16">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D16">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1366,19 +1363,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K16">
-        <v>0.3544973544973545</v>
+        <v>0.3166666666666667</v>
       </c>
       <c r="L16">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="M16">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1390,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>122</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1398,13 +1395,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4631578947368421</v>
+        <v>0.5159420289855072</v>
       </c>
       <c r="C17">
-        <v>44</v>
+        <v>178</v>
       </c>
       <c r="D17">
-        <v>44</v>
+        <v>178</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1416,19 +1413,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>51</v>
+        <v>167</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K17">
-        <v>0.3125</v>
+        <v>0.265625</v>
       </c>
       <c r="L17">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M17">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1440,7 +1437,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1448,38 +1445,38 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.453125</v>
+        <v>0.421875</v>
       </c>
       <c r="C18">
+        <v>54</v>
+      </c>
+      <c r="D18">
+        <v>54</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>74</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K18">
+        <v>0.232</v>
+      </c>
+      <c r="L18">
         <v>29</v>
       </c>
-      <c r="D18">
+      <c r="M18">
         <v>29</v>
       </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>35</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K18">
-        <v>0.2248995983935743</v>
-      </c>
-      <c r="L18">
-        <v>56</v>
-      </c>
-      <c r="M18">
-        <v>56</v>
-      </c>
       <c r="N18">
         <v>1</v>
       </c>
@@ -1490,7 +1487,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>193</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1498,13 +1495,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4444444444444444</v>
+        <v>0.4173228346456693</v>
       </c>
       <c r="C19">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="D19">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1516,19 +1513,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K19">
-        <v>0.208</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="L19">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M19">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1548,13 +1545,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4251968503937008</v>
+        <v>0.4126984126984127</v>
       </c>
       <c r="C20">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="D20">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1566,19 +1563,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K20">
-        <v>0.1989247311827957</v>
+        <v>0.2027972027972028</v>
       </c>
       <c r="L20">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="M20">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1590,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>149</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1598,13 +1595,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4126984126984127</v>
+        <v>0.4</v>
       </c>
       <c r="C21">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D21">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1616,19 +1613,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K21">
-        <v>0.1984126984126984</v>
+        <v>0.1881720430107527</v>
       </c>
       <c r="L21">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="M21">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1640,7 +1637,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>101</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1648,13 +1645,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.40625</v>
+        <v>0.3981042654028436</v>
       </c>
       <c r="C22">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="D22">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1666,19 +1663,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>76</v>
+        <v>127</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K22">
-        <v>0.1831726555652936</v>
+        <v>0.1726907630522088</v>
       </c>
       <c r="L22">
-        <v>209</v>
+        <v>43</v>
       </c>
       <c r="M22">
-        <v>209</v>
+        <v>43</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1690,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>932</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1698,13 +1695,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3933649289099526</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="C23">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="D23">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1716,31 +1713,31 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>128</v>
+        <v>38</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K23">
-        <v>0.1818181818181818</v>
+        <v>0.1640350877192983</v>
       </c>
       <c r="L23">
-        <v>26</v>
+        <v>187</v>
       </c>
       <c r="M23">
-        <v>26</v>
+        <v>188</v>
       </c>
       <c r="N23">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23">
-        <v>117</v>
+        <v>953</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1748,13 +1745,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3809523809523809</v>
+        <v>0.3855421686746988</v>
       </c>
       <c r="C24">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D24">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1766,19 +1763,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K24">
-        <v>0.1122994652406417</v>
+        <v>0.1149732620320856</v>
       </c>
       <c r="L24">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M24">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1790,7 +1787,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1798,13 +1795,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3366336633663367</v>
+        <v>0.3833333333333334</v>
       </c>
       <c r="C25">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="D25">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1816,31 +1813,31 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>134</v>
+        <v>37</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K25">
-        <v>0.1089385474860335</v>
+        <v>0.1125569290826285</v>
       </c>
       <c r="L25">
-        <v>39</v>
+        <v>173</v>
       </c>
       <c r="M25">
-        <v>40</v>
+        <v>177</v>
       </c>
       <c r="N25">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="O25">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P25" t="b">
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>319</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1848,13 +1845,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3283582089552239</v>
+        <v>0.3483146067415731</v>
       </c>
       <c r="C26">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D26">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1866,31 +1863,31 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K26">
-        <v>0.09616634178037686</v>
+        <v>0.1030640668523677</v>
       </c>
       <c r="L26">
-        <v>148</v>
+        <v>37</v>
       </c>
       <c r="M26">
-        <v>150</v>
+        <v>37</v>
       </c>
       <c r="N26">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>1391</v>
+        <v>322</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1898,37 +1895,37 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.2840909090909091</v>
+        <v>0.3217821782178218</v>
       </c>
       <c r="C27">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="D27">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="E27">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>63</v>
+        <v>137</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K27">
-        <v>0.08024691358024691</v>
+        <v>0.08641975308641975</v>
       </c>
       <c r="L27">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M27">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1940,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1948,49 +1945,49 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2474226804123711</v>
+        <v>0.2653061224489796</v>
       </c>
       <c r="C28">
+        <v>26</v>
+      </c>
+      <c r="D28">
+        <v>26</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>72</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K28">
+        <v>0.064</v>
+      </c>
+      <c r="L28">
         <v>48</v>
       </c>
-      <c r="D28">
-        <v>48</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>146</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K28">
-        <v>0.053475935828877</v>
-      </c>
-      <c r="L28">
-        <v>40</v>
-      </c>
       <c r="M28">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="N28">
-        <v>0.91</v>
+        <v>0.96</v>
       </c>
       <c r="O28">
-        <v>0.08999999999999997</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P28" t="b">
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>708</v>
+        <v>702</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1998,13 +1995,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.2393162393162393</v>
+        <v>0.2525773195876289</v>
       </c>
       <c r="C29">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="D29">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2016,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>89</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2024,13 +2021,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.22</v>
+        <v>0.2393162393162393</v>
       </c>
       <c r="C30">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="D30">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2042,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>156</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2050,25 +2047,25 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.2020802377414562</v>
+        <v>0.2151898734177215</v>
       </c>
       <c r="C31">
-        <v>136</v>
+        <v>68</v>
       </c>
       <c r="D31">
-        <v>137</v>
+        <v>68</v>
       </c>
       <c r="E31">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>537</v>
+        <v>248</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2076,13 +2073,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.1993670886075949</v>
+        <v>0.21</v>
       </c>
       <c r="C32">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="D32">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2094,7 +2091,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>253</v>
+        <v>158</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2102,13 +2099,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.1884057971014493</v>
+        <v>0.1956521739130435</v>
       </c>
       <c r="C33">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D33">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2120,7 +2117,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2128,13 +2125,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.1835443037974684</v>
+        <v>0.1899109792284867</v>
       </c>
       <c r="C34">
-        <v>58</v>
+        <v>128</v>
       </c>
       <c r="D34">
-        <v>58</v>
+        <v>128</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2146,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>258</v>
+        <v>546</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2154,13 +2151,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.1786743515850144</v>
+        <v>0.1873198847262248</v>
       </c>
       <c r="C35">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D35">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E35">
         <v>0.02</v>
@@ -2172,7 +2169,7 @@
         <v>1</v>
       </c>
       <c r="H35">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2180,13 +2177,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.1714285714285714</v>
+        <v>0.1857142857142857</v>
       </c>
       <c r="C36">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D36">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2198,7 +2195,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2206,13 +2203,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.1592356687898089</v>
+        <v>0.1719745222929936</v>
       </c>
       <c r="C37">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D37">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2224,7 +2221,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2232,13 +2229,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.1519823788546255</v>
+        <v>0.1682242990654206</v>
       </c>
       <c r="C38">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="D38">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2250,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>385</v>
+        <v>178</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2258,13 +2255,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.1475409836065574</v>
+        <v>0.1677215189873418</v>
       </c>
       <c r="C39">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="D39">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2276,7 +2273,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>156</v>
+        <v>263</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2310,13 +2307,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.1308900523560209</v>
+        <v>0.1387665198237885</v>
       </c>
       <c r="C41">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="D41">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2328,7 +2325,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>166</v>
+        <v>391</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2336,7 +2333,7 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.1214953271028037</v>
+        <v>0.1361256544502618</v>
       </c>
       <c r="C42">
         <v>26</v>
@@ -2354,7 +2351,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>188</v>
+        <v>165</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2362,25 +2359,25 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.1133603238866397</v>
+        <v>0.1198501872659176</v>
       </c>
       <c r="C43">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D43">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E43">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>219</v>
+        <v>235</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2388,7 +2385,7 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.1056603773584906</v>
+        <v>0.1138211382113821</v>
       </c>
       <c r="C44">
         <v>28</v>
@@ -2406,7 +2403,7 @@
         <v>1</v>
       </c>
       <c r="H44">
-        <v>237</v>
+        <v>218</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2440,7 +2437,7 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.08493150684931507</v>
+        <v>0.08732394366197183</v>
       </c>
       <c r="C46">
         <v>31</v>
@@ -2458,7 +2455,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>334</v>
+        <v>324</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2466,25 +2463,25 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.07909604519774012</v>
+        <v>0.07945205479452055</v>
       </c>
       <c r="C47">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D47">
         <v>29</v>
       </c>
       <c r="E47">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47">
-        <v>326</v>
+        <v>336</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2492,25 +2489,25 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.07857142857142857</v>
+        <v>0.07590759075907591</v>
       </c>
       <c r="C48">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="D48">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48">
-        <v>258</v>
+        <v>560</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2518,25 +2515,25 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.07511737089201878</v>
+        <v>0.06542056074766354</v>
       </c>
       <c r="C49">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D49">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E49">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="F49">
-        <v>0.8</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="G49" t="b">
         <v>1</v>
       </c>
       <c r="H49">
-        <v>394</v>
+        <v>400</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2544,25 +2541,25 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.06942148760330578</v>
+        <v>0.04865556978233035</v>
       </c>
       <c r="C50">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D50">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E50">
-        <v>0.07000000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="F50">
-        <v>0.9299999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="G50" t="b">
         <v>1</v>
       </c>
       <c r="H50">
-        <v>563</v>
+        <v>743</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2570,13 +2567,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.05859872611464968</v>
+        <v>0.04776579352850539</v>
       </c>
       <c r="C51">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="D51">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="E51">
         <v>0.16</v>
@@ -2588,33 +2585,7 @@
         <v>1</v>
       </c>
       <c r="H51">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B52">
-        <v>0.05255023183925812</v>
-      </c>
-      <c r="C52">
-        <v>34</v>
-      </c>
-      <c r="D52">
-        <v>42</v>
-      </c>
-      <c r="E52">
-        <v>0.19</v>
-      </c>
-      <c r="F52">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="G52" t="b">
-        <v>1</v>
-      </c>
-      <c r="H52">
-        <v>613</v>
+        <v>618</v>
       </c>
     </row>
   </sheetData>
